--- a/database workbook.xlsx
+++ b/database workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Projects\PycharmProjects\LendCentre\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30079051.eastkent\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C24B0B-5E4D-4454-8950-48FD7211444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7D867-3A7D-4183-8E9A-B5A70ADE7B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5985029-C304-4E14-B06A-83B2417720C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="272">
   <si>
     <t>Amplifier</t>
   </si>
@@ -614,9 +614,6 @@
     <t>Strings</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
@@ -852,16 +849,25 @@
   </si>
   <si>
     <t>SL-1210MK2</t>
+  </si>
+  <si>
+    <t>Est. quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1229,25 +1235,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDC74E2-49FE-4940-A5E5-5C5F4A30102F}">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:W261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1278,11 +1288,41 @@
       <c r="J1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1298,8 +1338,26 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1315,8 +1373,26 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1332,8 +1408,26 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1349,8 +1443,26 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1366,8 +1478,26 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1383,8 +1513,26 @@
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1400,8 +1548,26 @@
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1417,8 +1583,26 @@
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1434,8 +1618,26 @@
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1451,8 +1653,26 @@
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1468,8 +1688,26 @@
       <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1485,8 +1723,26 @@
       <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1502,8 +1758,26 @@
       <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1519,8 +1793,29 @@
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1536,8 +1831,26 @@
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1553,8 +1866,29 @@
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1570,8 +1904,29 @@
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1587,8 +1942,27 @@
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1607,8 +1981,29 @@
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1627,8 +2022,29 @@
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1647,8 +2063,29 @@
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1667,8 +2104,29 @@
       <c r="G23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1684,8 +2142,27 @@
       <c r="G24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1704,8 +2181,27 @@
       <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1724,8 +2220,29 @@
       <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1744,8 +2261,27 @@
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1765,8 +2301,29 @@
         <v>52</v>
       </c>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1786,8 +2343,29 @@
         <v>56</v>
       </c>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1806,8 +2384,29 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1826,8 +2425,29 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1847,8 +2467,29 @@
         <v>3</v>
       </c>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1867,8 +2508,29 @@
       <c r="G33" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1887,8 +2549,29 @@
       <c r="G34" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1908,8 +2591,29 @@
         <v>52</v>
       </c>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1929,8 +2633,29 @@
         <v>7</v>
       </c>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1950,8 +2675,26 @@
         <v>3</v>
       </c>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1971,8 +2714,29 @@
         <v>3</v>
       </c>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1992,8 +2756,29 @@
         <v>3</v>
       </c>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2013,8 +2798,29 @@
         <v>71</v>
       </c>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2034,8 +2840,29 @@
         <v>71</v>
       </c>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2055,8 +2882,29 @@
         <v>3</v>
       </c>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2076,8 +2924,29 @@
         <v>3</v>
       </c>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2097,8 +2966,29 @@
         <v>3</v>
       </c>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2118,8 +3008,29 @@
         <v>3</v>
       </c>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2139,8 +3050,29 @@
         <v>52</v>
       </c>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2160,8 +3092,29 @@
         <v>3</v>
       </c>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2181,8 +3134,29 @@
         <v>3</v>
       </c>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>47</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2202,8 +3176,29 @@
         <v>3</v>
       </c>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>48</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2223,8 +3218,29 @@
         <v>52</v>
       </c>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>49</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2244,8 +3260,29 @@
         <v>52</v>
       </c>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>50</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2265,8 +3302,29 @@
         <v>3</v>
       </c>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2286,8 +3344,29 @@
         <v>52</v>
       </c>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>52</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2307,8 +3386,29 @@
         <v>52</v>
       </c>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>53</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2328,8 +3428,29 @@
         <v>52</v>
       </c>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>54</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2349,8 +3470,29 @@
         <v>52</v>
       </c>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>55</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2370,8 +3512,29 @@
         <v>3</v>
       </c>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>56</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2391,8 +3554,26 @@
         <v>3</v>
       </c>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>57</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2412,8 +3593,26 @@
         <v>3</v>
       </c>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>58</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2433,8 +3632,26 @@
         <v>3</v>
       </c>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>59</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2454,8 +3671,26 @@
         <v>3</v>
       </c>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>60</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2475,8 +3710,24 @@
         <v>3</v>
       </c>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>61</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="S62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2496,8 +3747,26 @@
         <v>3</v>
       </c>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>62</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2517,8 +3786,26 @@
         <v>3</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>63</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2537,8 +3824,26 @@
       <c r="G65" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>64</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2558,8 +3863,26 @@
         <v>3</v>
       </c>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>65</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2579,8 +3902,26 @@
         <v>3</v>
       </c>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>66</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2600,8 +3941,26 @@
         <v>3</v>
       </c>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>67</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2621,8 +3980,26 @@
         <v>3</v>
       </c>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>68</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2642,8 +4019,26 @@
         <v>3</v>
       </c>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>69</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2663,8 +4058,27 @@
         <v>3</v>
       </c>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>70</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="W71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2684,8 +4098,27 @@
         <v>3</v>
       </c>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>71</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T72" s="1"/>
+      <c r="W72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2705,8 +4138,27 @@
         <v>3</v>
       </c>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>72</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T73" s="1"/>
+      <c r="W73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2726,8 +4178,35 @@
         <v>3</v>
       </c>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>73</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U74" s="1">
+        <v>6</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2747,8 +4226,35 @@
         <v>3</v>
       </c>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>74</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U75" s="1">
+        <v>4</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2768,8 +4274,35 @@
         <v>3</v>
       </c>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>75</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="1">
+        <v>6</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2789,8 +4322,35 @@
         <v>3</v>
       </c>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>76</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U77" s="1">
+        <v>6</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2810,8 +4370,35 @@
         <v>3</v>
       </c>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>77</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U78" s="1">
+        <v>6</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2831,8 +4418,35 @@
         <v>3</v>
       </c>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>78</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U79" s="1">
+        <v>4</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2852,8 +4466,35 @@
         <v>3</v>
       </c>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>79</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U80" s="1">
+        <v>6</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2873,8 +4514,35 @@
         <v>3</v>
       </c>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>80</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U81" s="1">
+        <v>4</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2894,8 +4562,35 @@
         <v>3</v>
       </c>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>81</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U82" s="1">
+        <v>6</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2915,8 +4610,35 @@
         <v>3</v>
       </c>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>82</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U83" s="1">
+        <v>6</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2936,8 +4658,35 @@
         <v>3</v>
       </c>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>83</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U84" s="1">
+        <v>6</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2957,8 +4706,29 @@
         <v>3</v>
       </c>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>84</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W85" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2978,8 +4748,29 @@
         <v>3</v>
       </c>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>85</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2999,8 +4790,29 @@
         <v>3</v>
       </c>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>86</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="W87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3020,8 +4832,29 @@
         <v>3</v>
       </c>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>87</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3041,8 +4874,29 @@
         <v>3</v>
       </c>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>88</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3062,8 +4916,29 @@
         <v>3</v>
       </c>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>89</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3083,8 +4958,29 @@
         <v>3</v>
       </c>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M91">
+        <v>90</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3104,8 +5000,29 @@
         <v>3</v>
       </c>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <v>91</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3125,8 +5042,29 @@
         <v>3</v>
       </c>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <v>92</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3146,8 +5084,29 @@
         <v>3</v>
       </c>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>93</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3167,8 +5126,29 @@
         <v>3</v>
       </c>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <v>94</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3188,8 +5168,29 @@
         <v>3</v>
       </c>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>95</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3209,8 +5210,27 @@
         <v>3</v>
       </c>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M97">
+        <v>96</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S97" s="1"/>
+      <c r="W97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3230,8 +5250,29 @@
         <v>3</v>
       </c>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M98">
+        <v>97</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3251,8 +5292,27 @@
         <v>3</v>
       </c>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>98</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S99" s="1"/>
+      <c r="W99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3272,8 +5332,29 @@
         <v>119</v>
       </c>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M100">
+        <v>99</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3293,8 +5374,32 @@
         <v>119</v>
       </c>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M101">
+        <v>100</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3314,8 +5419,32 @@
         <v>119</v>
       </c>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M102">
+        <v>101</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3335,8 +5464,32 @@
         <v>119</v>
       </c>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M103">
+        <v>102</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3356,8 +5509,32 @@
         <v>119</v>
       </c>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M104">
+        <v>103</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3377,8 +5554,32 @@
         <v>119</v>
       </c>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M105">
+        <v>104</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3398,8 +5599,32 @@
         <v>119</v>
       </c>
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M106">
+        <v>105</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3419,8 +5644,32 @@
         <v>119</v>
       </c>
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M107">
+        <v>106</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3440,8 +5689,32 @@
         <v>3</v>
       </c>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M108">
+        <v>107</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3461,8 +5734,32 @@
         <v>52</v>
       </c>
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M109">
+        <v>108</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3482,8 +5779,32 @@
         <v>52</v>
       </c>
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M110">
+        <v>109</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3503,8 +5824,32 @@
         <v>52</v>
       </c>
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M111">
+        <v>110</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3523,8 +5868,32 @@
       <c r="G112" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M112">
+        <v>111</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3543,8 +5912,32 @@
       <c r="G113" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M113">
+        <v>112</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W113" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3563,8 +5956,32 @@
       <c r="G114" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M114">
+        <v>113</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>129</v>
       </c>
@@ -3580,8 +5997,32 @@
       <c r="G115" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>114</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="W115" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
         <v>129</v>
       </c>
@@ -3597,8 +6038,30 @@
       <c r="G116" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M116">
+        <v>115</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
         <v>129</v>
       </c>
@@ -3614,8 +6077,32 @@
       <c r="G117" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M117">
+        <v>116</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>129</v>
       </c>
@@ -3631,8 +6118,29 @@
       <c r="G118" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M118">
+        <v>117</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R118" t="s">
+        <v>265</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W118" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
         <v>129</v>
       </c>
@@ -3648,8 +6156,29 @@
       <c r="G119" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M119">
+        <v>118</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W119" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>129</v>
       </c>
@@ -3666,7 +6195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
         <v>129</v>
       </c>
@@ -3683,7 +6212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
         <v>129</v>
       </c>
@@ -3700,7 +6229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>129</v>
       </c>
@@ -3717,7 +6246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>129</v>
       </c>
@@ -3734,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>129</v>
       </c>
@@ -3751,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3768,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>129</v>
       </c>
@@ -3785,7 +6314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3802,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>129</v>
       </c>
@@ -3819,7 +6348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
         <v>129</v>
       </c>
@@ -3836,7 +6365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="1" t="s">
         <v>130</v>
       </c>
@@ -3851,7 +6380,7 @@
       </c>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>130</v>
       </c>
@@ -3866,7 +6395,7 @@
       </c>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>130</v>
       </c>
@@ -3881,7 +6410,7 @@
       </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>130</v>
       </c>
@@ -3896,7 +6425,7 @@
       </c>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="1" t="s">
         <v>130</v>
       </c>
@@ -3911,7 +6440,7 @@
       </c>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
         <v>130</v>
       </c>
@@ -3926,7 +6455,7 @@
       </c>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>130</v>
       </c>
@@ -3941,7 +6470,7 @@
       </c>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>130</v>
       </c>
@@ -3956,7 +6485,7 @@
       </c>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +6500,7 @@
       </c>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>130</v>
       </c>
@@ -3986,7 +6515,7 @@
       </c>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>130</v>
       </c>
@@ -4001,7 +6530,7 @@
       </c>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>130</v>
       </c>
@@ -4016,7 +6545,7 @@
       </c>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>130</v>
       </c>
@@ -4031,7 +6560,7 @@
       </c>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>130</v>
       </c>
@@ -4046,7 +6575,7 @@
       </c>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>130</v>
       </c>
@@ -4061,7 +6590,7 @@
       </c>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>130</v>
       </c>
@@ -4076,7 +6605,7 @@
       </c>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C147" s="1" t="s">
         <v>130</v>
       </c>
@@ -4091,7 +6620,7 @@
       </c>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C148" s="1" t="s">
         <v>130</v>
       </c>
@@ -4106,7 +6635,7 @@
       </c>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C149" s="1" t="s">
         <v>130</v>
       </c>
@@ -4121,7 +6650,7 @@
       </c>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>130</v>
       </c>
@@ -4136,7 +6665,7 @@
       </c>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C151" s="1" t="s">
         <v>130</v>
       </c>
@@ -4151,7 +6680,7 @@
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
@@ -4166,7 +6695,7 @@
       </c>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>130</v>
       </c>
@@ -4181,7 +6710,7 @@
       </c>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
         <v>130</v>
       </c>
@@ -4196,7 +6725,7 @@
       </c>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
         <v>130</v>
       </c>
@@ -4211,7 +6740,7 @@
       </c>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>130</v>
       </c>
@@ -4226,7 +6755,7 @@
       </c>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>130</v>
       </c>
@@ -4241,7 +6770,7 @@
       </c>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>130</v>
       </c>
@@ -4256,7 +6785,7 @@
       </c>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>130</v>
       </c>
@@ -4271,7 +6800,7 @@
       </c>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>164</v>
       </c>
@@ -4294,7 +6823,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
         <v>164</v>
       </c>
@@ -4317,7 +6846,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
         <v>164</v>
       </c>
@@ -4340,7 +6869,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4363,7 +6892,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C164" s="1" t="s">
         <v>164</v>
       </c>
@@ -4386,7 +6915,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
         <v>164</v>
       </c>
@@ -4409,7 +6938,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="166" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>164</v>
       </c>
@@ -4432,7 +6961,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>164</v>
       </c>
@@ -4455,7 +6984,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C168" s="1" t="s">
         <v>164</v>
       </c>
@@ -4478,7 +7007,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C169" s="1" t="s">
         <v>164</v>
       </c>
@@ -4501,7 +7030,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>164</v>
       </c>
@@ -4524,7 +7053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>164</v>
       </c>
@@ -4547,752 +7076,1660 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K172" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C174" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C175" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C176" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="G191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K176" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C177" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F177" s="1" t="s">
+      <c r="G194" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C178" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" s="1" t="s">
+      <c r="G195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K178" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C179" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K179" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C180" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K180" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C181" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K181" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C182" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K182" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C183" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K183" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C184" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G184" s="1"/>
-      <c r="K184" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C185" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C186" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G186" s="1"/>
-      <c r="K186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C187" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K187" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C188" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K188" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C189" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K189" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C190" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K190" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C191" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C192" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C193" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C194" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C195" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C196" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K196" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C197" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G205" s="1"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C237" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C198" s="1" t="s">
+      <c r="F238" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F198" s="1" t="s">
+      <c r="D239" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C199" s="1" t="s">
+      <c r="F239" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E199" s="1" t="s">
+      <c r="D240" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="G240" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="241" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C241" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C242" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C243" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="F244" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K199" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C200" s="1" t="s">
+      <c r="H244" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C245" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="D245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="246" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C246" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="247" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C247" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="248" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C249" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C251" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="E252" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C253" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="E253" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K200" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C201" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G201" s="1" t="s">
+      <c r="H253" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="254" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C254" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K201" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C202" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K202" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C203" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F203" s="1" t="s">
+      <c r="H254" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="255" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C255" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C204" s="1" t="s">
+      <c r="D255" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="G255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="256" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C256" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="F256" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="257" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C257" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K204" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C205" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F257" t="s">
         <v>265</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="G257" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C258" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F258" t="s">
+        <v>265</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C259" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F259" t="s">
+        <v>265</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="260" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C260" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F205" t="s">
-        <v>266</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K205" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C206" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K206" s="1">
-        <v>2</v>
+      <c r="G260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C261" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>